--- a/excelfiles/电路分析-performance-1621401-2-test.xlsx
+++ b/excelfiles/电路分析-performance-1621401-2-test.xlsx
@@ -14,213 +14,450 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>学号</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>总分</t>
   </si>
   <si>
     <t>初始分</t>
   </si>
   <si>
-    <t>201620060401</t>
-  </si>
-  <si>
-    <t>201620060402</t>
-  </si>
-  <si>
-    <t>201620060403</t>
-  </si>
-  <si>
-    <t>201620060404</t>
-  </si>
-  <si>
-    <t>201620060405</t>
-  </si>
-  <si>
-    <t>201620060406</t>
-  </si>
-  <si>
-    <t>201620060407</t>
-  </si>
-  <si>
-    <t>201620060408</t>
-  </si>
-  <si>
-    <t>201620060409</t>
-  </si>
-  <si>
-    <t>201620060410</t>
-  </si>
-  <si>
-    <t>201620060411</t>
-  </si>
-  <si>
-    <t>201620060412</t>
-  </si>
-  <si>
-    <t>201620060413</t>
-  </si>
-  <si>
-    <t>201620060414</t>
-  </si>
-  <si>
-    <t>201620060415</t>
-  </si>
-  <si>
-    <t>201620060416</t>
-  </si>
-  <si>
-    <t>201620060417</t>
-  </si>
-  <si>
-    <t>201620060418</t>
-  </si>
-  <si>
-    <t>201620060419</t>
-  </si>
-  <si>
-    <t>201620060420</t>
-  </si>
-  <si>
-    <t>201620060421</t>
-  </si>
-  <si>
-    <t>201620060422</t>
-  </si>
-  <si>
-    <t>201620060423</t>
-  </si>
-  <si>
-    <t>201620060424</t>
-  </si>
-  <si>
-    <t>201620060425</t>
-  </si>
-  <si>
-    <t>201620060426</t>
-  </si>
-  <si>
-    <t>201620060427</t>
-  </si>
-  <si>
-    <t>201620060428</t>
-  </si>
-  <si>
-    <t>201620060429</t>
-  </si>
-  <si>
-    <t>201620060430</t>
-  </si>
-  <si>
-    <t>201620060431</t>
-  </si>
-  <si>
-    <t>201620060432</t>
-  </si>
-  <si>
-    <t>201620060433</t>
-  </si>
-  <si>
-    <t>201620060501</t>
-  </si>
-  <si>
-    <t>201620060502</t>
-  </si>
-  <si>
-    <t>201620060503</t>
-  </si>
-  <si>
-    <t>201620060504</t>
-  </si>
-  <si>
-    <t>201620060505</t>
-  </si>
-  <si>
-    <t>201620060506</t>
-  </si>
-  <si>
-    <t>201620060507</t>
-  </si>
-  <si>
-    <t>201620060508</t>
-  </si>
-  <si>
-    <t>201620060509</t>
-  </si>
-  <si>
-    <t>201620060510</t>
-  </si>
-  <si>
-    <t>201620060511</t>
-  </si>
-  <si>
-    <t>201620060512</t>
-  </si>
-  <si>
-    <t>201620060513</t>
-  </si>
-  <si>
-    <t>201620060514</t>
-  </si>
-  <si>
-    <t>201620060515</t>
-  </si>
-  <si>
-    <t>201620060516</t>
-  </si>
-  <si>
-    <t>201620060517</t>
-  </si>
-  <si>
-    <t>201620060518</t>
-  </si>
-  <si>
-    <t>201620060519</t>
-  </si>
-  <si>
-    <t>201620060520</t>
-  </si>
-  <si>
-    <t>201620060521</t>
-  </si>
-  <si>
-    <t>201620060522</t>
-  </si>
-  <si>
-    <t>201620060523</t>
-  </si>
-  <si>
-    <t>201620060524</t>
-  </si>
-  <si>
-    <t>201620060525</t>
-  </si>
-  <si>
-    <t>201620060526</t>
-  </si>
-  <si>
-    <t>201620060527</t>
-  </si>
-  <si>
-    <t>201620060528</t>
-  </si>
-  <si>
-    <t>201620060529</t>
-  </si>
-  <si>
-    <t>201620060530</t>
-  </si>
-  <si>
-    <t>201620060531</t>
-  </si>
-  <si>
-    <t>201620060532</t>
-  </si>
-  <si>
-    <t>201620060533</t>
+    <t>旷课</t>
+  </si>
+  <si>
+    <t>迟到</t>
+  </si>
+  <si>
+    <t>早退</t>
+  </si>
+  <si>
+    <t>提出问题</t>
+  </si>
+  <si>
+    <t>回答问题</t>
+  </si>
+  <si>
+    <t>课堂作业</t>
+  </si>
+  <si>
+    <t>作业1</t>
+  </si>
+  <si>
+    <t>作业2</t>
+  </si>
+  <si>
+    <t>作业3</t>
+  </si>
+  <si>
+    <t>作业4</t>
+  </si>
+  <si>
+    <t>作业5</t>
+  </si>
+  <si>
+    <t>作业6</t>
+  </si>
+  <si>
+    <t>作业7</t>
+  </si>
+  <si>
+    <t>是否已交课堂作业</t>
+  </si>
+  <si>
+    <t>201620140101</t>
+  </si>
+  <si>
+    <t>姓名6101</t>
+  </si>
+  <si>
+    <t>201620140102</t>
+  </si>
+  <si>
+    <t>姓名6102</t>
+  </si>
+  <si>
+    <t>201620140103</t>
+  </si>
+  <si>
+    <t>姓名6103</t>
+  </si>
+  <si>
+    <t>201620140104</t>
+  </si>
+  <si>
+    <t>姓名6104</t>
+  </si>
+  <si>
+    <t>201620140105</t>
+  </si>
+  <si>
+    <t>姓名6105</t>
+  </si>
+  <si>
+    <t>201620140106</t>
+  </si>
+  <si>
+    <t>姓名6106</t>
+  </si>
+  <si>
+    <t>201620140107</t>
+  </si>
+  <si>
+    <t>姓名6107</t>
+  </si>
+  <si>
+    <t>201620140108</t>
+  </si>
+  <si>
+    <t>姓名6108</t>
+  </si>
+  <si>
+    <t>201620140109</t>
+  </si>
+  <si>
+    <t>姓名6109</t>
+  </si>
+  <si>
+    <t>201620140110</t>
+  </si>
+  <si>
+    <t>姓名6110</t>
+  </si>
+  <si>
+    <t>201620140111</t>
+  </si>
+  <si>
+    <t>姓名6111</t>
+  </si>
+  <si>
+    <t>201620140112</t>
+  </si>
+  <si>
+    <t>姓名6112</t>
+  </si>
+  <si>
+    <t>201620140113</t>
+  </si>
+  <si>
+    <t>姓名6113</t>
+  </si>
+  <si>
+    <t>201620140114</t>
+  </si>
+  <si>
+    <t>姓名6114</t>
+  </si>
+  <si>
+    <t>201620140115</t>
+  </si>
+  <si>
+    <t>姓名6115</t>
+  </si>
+  <si>
+    <t>201620140116</t>
+  </si>
+  <si>
+    <t>姓名6116</t>
+  </si>
+  <si>
+    <t>201620140117</t>
+  </si>
+  <si>
+    <t>姓名6117</t>
+  </si>
+  <si>
+    <t>201620140118</t>
+  </si>
+  <si>
+    <t>姓名6118</t>
+  </si>
+  <si>
+    <t>201620140119</t>
+  </si>
+  <si>
+    <t>姓名6119</t>
+  </si>
+  <si>
+    <t>201620140120</t>
+  </si>
+  <si>
+    <t>姓名6120</t>
+  </si>
+  <si>
+    <t>201620140121</t>
+  </si>
+  <si>
+    <t>姓名6121</t>
+  </si>
+  <si>
+    <t>201620140122</t>
+  </si>
+  <si>
+    <t>姓名6122</t>
+  </si>
+  <si>
+    <t>201620140123</t>
+  </si>
+  <si>
+    <t>姓名6123</t>
+  </si>
+  <si>
+    <t>201620140124</t>
+  </si>
+  <si>
+    <t>姓名6124</t>
+  </si>
+  <si>
+    <t>201620140125</t>
+  </si>
+  <si>
+    <t>姓名6125</t>
+  </si>
+  <si>
+    <t>201620140126</t>
+  </si>
+  <si>
+    <t>姓名6126</t>
+  </si>
+  <si>
+    <t>201620140127</t>
+  </si>
+  <si>
+    <t>姓名6127</t>
+  </si>
+  <si>
+    <t>201620140128</t>
+  </si>
+  <si>
+    <t>姓名6128</t>
+  </si>
+  <si>
+    <t>201620140129</t>
+  </si>
+  <si>
+    <t>姓名6129</t>
+  </si>
+  <si>
+    <t>201620140130</t>
+  </si>
+  <si>
+    <t>姓名6130</t>
+  </si>
+  <si>
+    <t>201620140131</t>
+  </si>
+  <si>
+    <t>姓名6131</t>
+  </si>
+  <si>
+    <t>201620140132</t>
+  </si>
+  <si>
+    <t>姓名6132</t>
+  </si>
+  <si>
+    <t>201620140133</t>
+  </si>
+  <si>
+    <t>姓名6133</t>
+  </si>
+  <si>
+    <t>201620140201</t>
+  </si>
+  <si>
+    <t>姓名6201</t>
+  </si>
+  <si>
+    <t>201620140202</t>
+  </si>
+  <si>
+    <t>姓名6202</t>
+  </si>
+  <si>
+    <t>201620140203</t>
+  </si>
+  <si>
+    <t>姓名6203</t>
+  </si>
+  <si>
+    <t>201620140204</t>
+  </si>
+  <si>
+    <t>姓名6204</t>
+  </si>
+  <si>
+    <t>201620140205</t>
+  </si>
+  <si>
+    <t>姓名6205</t>
+  </si>
+  <si>
+    <t>201620140206</t>
+  </si>
+  <si>
+    <t>姓名6206</t>
+  </si>
+  <si>
+    <t>201620140207</t>
+  </si>
+  <si>
+    <t>姓名6207</t>
+  </si>
+  <si>
+    <t>201620140208</t>
+  </si>
+  <si>
+    <t>姓名6208</t>
+  </si>
+  <si>
+    <t>201620140209</t>
+  </si>
+  <si>
+    <t>姓名6209</t>
+  </si>
+  <si>
+    <t>201620140210</t>
+  </si>
+  <si>
+    <t>姓名6210</t>
+  </si>
+  <si>
+    <t>201620140211</t>
+  </si>
+  <si>
+    <t>姓名6211</t>
+  </si>
+  <si>
+    <t>201620140212</t>
+  </si>
+  <si>
+    <t>姓名6212</t>
+  </si>
+  <si>
+    <t>201620140213</t>
+  </si>
+  <si>
+    <t>姓名6213</t>
+  </si>
+  <si>
+    <t>201620140214</t>
+  </si>
+  <si>
+    <t>姓名6214</t>
+  </si>
+  <si>
+    <t>201620140215</t>
+  </si>
+  <si>
+    <t>姓名6215</t>
+  </si>
+  <si>
+    <t>201620140216</t>
+  </si>
+  <si>
+    <t>姓名6216</t>
+  </si>
+  <si>
+    <t>201620140217</t>
+  </si>
+  <si>
+    <t>姓名6217</t>
+  </si>
+  <si>
+    <t>201620140218</t>
+  </si>
+  <si>
+    <t>姓名6218</t>
+  </si>
+  <si>
+    <t>201620140219</t>
+  </si>
+  <si>
+    <t>姓名6219</t>
+  </si>
+  <si>
+    <t>201620140220</t>
+  </si>
+  <si>
+    <t>姓名6220</t>
+  </si>
+  <si>
+    <t>201620140221</t>
+  </si>
+  <si>
+    <t>姓名6221</t>
+  </si>
+  <si>
+    <t>201620140222</t>
+  </si>
+  <si>
+    <t>姓名6222</t>
+  </si>
+  <si>
+    <t>201620140223</t>
+  </si>
+  <si>
+    <t>姓名6223</t>
+  </si>
+  <si>
+    <t>201620140224</t>
+  </si>
+  <si>
+    <t>姓名6224</t>
+  </si>
+  <si>
+    <t>201620140225</t>
+  </si>
+  <si>
+    <t>姓名6225</t>
+  </si>
+  <si>
+    <t>201620140226</t>
+  </si>
+  <si>
+    <t>姓名6226</t>
+  </si>
+  <si>
+    <t>201620140227</t>
+  </si>
+  <si>
+    <t>姓名6227</t>
+  </si>
+  <si>
+    <t>201620140228</t>
+  </si>
+  <si>
+    <t>姓名6228</t>
+  </si>
+  <si>
+    <t>201620140229</t>
+  </si>
+  <si>
+    <t>姓名6229</t>
+  </si>
+  <si>
+    <t>201620140230</t>
+  </si>
+  <si>
+    <t>姓名6230</t>
+  </si>
+  <si>
+    <t>201620140231</t>
+  </si>
+  <si>
+    <t>姓名6231</t>
+  </si>
+  <si>
+    <t>201620140232</t>
+  </si>
+  <si>
+    <t>姓名6232</t>
   </si>
 </sst>
 </file>
@@ -556,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E68"/>
+  <dimension ref="B2:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +801,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -572,18 +809,60 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" t="n">
         <v>65</v>
@@ -591,13 +870,55 @@
       <c r="E3" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="n">
         <v>65</v>
@@ -605,13 +926,55 @@
       <c r="E4" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -619,13 +982,55 @@
       <c r="E5" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>65</v>
@@ -633,13 +1038,55 @@
       <c r="E6" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>65</v>
@@ -647,13 +1094,55 @@
       <c r="E7" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>65</v>
@@ -661,13 +1150,55 @@
       <c r="E8" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>65</v>
@@ -675,13 +1206,55 @@
       <c r="E9" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>65</v>
@@ -689,13 +1262,55 @@
       <c r="E10" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>65</v>
@@ -703,13 +1318,55 @@
       <c r="E11" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>65</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>65</v>
@@ -717,13 +1374,55 @@
       <c r="E12" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="n">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>65</v>
@@ -731,13 +1430,55 @@
       <c r="E13" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="n">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>65</v>
@@ -745,13 +1486,55 @@
       <c r="E14" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="n">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>65</v>
@@ -759,13 +1542,55 @@
       <c r="E15" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="n">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
       </c>
       <c r="D16" t="n">
         <v>65</v>
@@ -773,13 +1598,55 @@
       <c r="E16" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
       </c>
       <c r="D17" t="n">
         <v>65</v>
@@ -787,13 +1654,55 @@
       <c r="E17" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="n">
         <v>65</v>
@@ -801,13 +1710,55 @@
       <c r="E18" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>65</v>
@@ -815,13 +1766,55 @@
       <c r="E19" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>65</v>
@@ -829,13 +1822,55 @@
       <c r="E20" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="n">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
       </c>
       <c r="D21" t="n">
         <v>65</v>
@@ -843,13 +1878,55 @@
       <c r="E21" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
       </c>
       <c r="D22" t="n">
         <v>65</v>
@@ -857,13 +1934,55 @@
       <c r="E22" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
       </c>
       <c r="D23" t="n">
         <v>65</v>
@@ -871,13 +1990,55 @@
       <c r="E23" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>65</v>
@@ -885,13 +2046,55 @@
       <c r="E24" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
       </c>
       <c r="D25" t="n">
         <v>65</v>
@@ -899,12 +2102,54 @@
       <c r="E25" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="n">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="n">
@@ -913,13 +2158,55 @@
       <c r="E26" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="n">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
       <c r="D27" t="n">
         <v>65</v>
@@ -927,13 +2214,55 @@
       <c r="E27" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="n">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
       </c>
       <c r="D28" t="n">
         <v>65</v>
@@ -941,13 +2270,55 @@
       <c r="E28" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="n">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
       </c>
       <c r="D29" t="n">
         <v>65</v>
@@ -955,13 +2326,55 @@
       <c r="E29" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
       </c>
       <c r="D30" t="n">
         <v>65</v>
@@ -969,13 +2382,55 @@
       <c r="E30" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="n">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
       </c>
       <c r="D31" t="n">
         <v>65</v>
@@ -983,13 +2438,55 @@
       <c r="E31" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
       </c>
       <c r="D32" t="n">
         <v>65</v>
@@ -997,13 +2494,55 @@
       <c r="E32" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="n">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
       </c>
       <c r="D33" t="n">
         <v>65</v>
@@ -1011,13 +2550,55 @@
       <c r="E33" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="n">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
       </c>
       <c r="D34" t="n">
         <v>65</v>
@@ -1025,13 +2606,55 @@
       <c r="E34" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="n">
-        <v>65</v>
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
       </c>
       <c r="D35" t="n">
         <v>65</v>
@@ -1039,13 +2662,55 @@
       <c r="E35" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
       <c r="D36" t="n">
         <v>65</v>
@@ -1053,13 +2718,55 @@
       <c r="E36" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="n">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
       </c>
       <c r="D37" t="n">
         <v>65</v>
@@ -1067,13 +2774,55 @@
       <c r="E37" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="n">
-        <v>65</v>
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
       </c>
       <c r="D38" t="n">
         <v>65</v>
@@ -1081,13 +2830,55 @@
       <c r="E38" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="n">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
       </c>
       <c r="D39" t="n">
         <v>65</v>
@@ -1095,13 +2886,55 @@
       <c r="E39" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="n">
-        <v>65</v>
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
       </c>
       <c r="D40" t="n">
         <v>65</v>
@@ -1109,13 +2942,55 @@
       <c r="E40" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="n">
-        <v>65</v>
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
       </c>
       <c r="D41" t="n">
         <v>65</v>
@@ -1123,13 +2998,55 @@
       <c r="E41" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="n">
-        <v>65</v>
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
       </c>
       <c r="D42" t="n">
         <v>65</v>
@@ -1137,13 +3054,55 @@
       <c r="E42" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="n">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
       </c>
       <c r="D43" t="n">
         <v>65</v>
@@ -1151,13 +3110,55 @@
       <c r="E43" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="n">
-        <v>65</v>
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
       </c>
       <c r="D44" t="n">
         <v>65</v>
@@ -1165,13 +3166,55 @@
       <c r="E44" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="n">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
       </c>
       <c r="D45" t="n">
         <v>65</v>
@@ -1179,13 +3222,55 @@
       <c r="E45" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="n">
-        <v>65</v>
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
       </c>
       <c r="D46" t="n">
         <v>65</v>
@@ -1193,13 +3278,55 @@
       <c r="E46" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="n">
-        <v>65</v>
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
       </c>
       <c r="D47" t="n">
         <v>65</v>
@@ -1207,13 +3334,55 @@
       <c r="E47" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="n">
-        <v>65</v>
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
       </c>
       <c r="D48" t="n">
         <v>65</v>
@@ -1221,13 +3390,55 @@
       <c r="E48" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="n">
-        <v>65</v>
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
       </c>
       <c r="D49" t="n">
         <v>65</v>
@@ -1235,13 +3446,55 @@
       <c r="E49" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="n">
-        <v>65</v>
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
       </c>
       <c r="D50" t="n">
         <v>65</v>
@@ -1249,13 +3502,55 @@
       <c r="E50" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="n">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
       </c>
       <c r="D51" t="n">
         <v>65</v>
@@ -1263,13 +3558,55 @@
       <c r="E51" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="n">
-        <v>65</v>
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
       </c>
       <c r="D52" t="n">
         <v>65</v>
@@ -1277,13 +3614,55 @@
       <c r="E52" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="n">
-        <v>65</v>
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
       </c>
       <c r="D53" t="n">
         <v>65</v>
@@ -1291,13 +3670,55 @@
       <c r="E53" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="n">
-        <v>65</v>
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
       </c>
       <c r="D54" t="n">
         <v>65</v>
@@ -1305,13 +3726,55 @@
       <c r="E54" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="n">
-        <v>65</v>
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
       </c>
       <c r="D55" t="n">
         <v>65</v>
@@ -1319,13 +3782,55 @@
       <c r="E55" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="n">
-        <v>65</v>
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>125</v>
       </c>
       <c r="D56" t="n">
         <v>65</v>
@@ -1333,13 +3838,55 @@
       <c r="E56" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="n">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
       </c>
       <c r="D57" t="n">
         <v>65</v>
@@ -1347,13 +3894,55 @@
       <c r="E57" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="n">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
       </c>
       <c r="D58" t="n">
         <v>65</v>
@@ -1361,13 +3950,55 @@
       <c r="E58" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="n">
-        <v>65</v>
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
       </c>
       <c r="D59" t="n">
         <v>65</v>
@@ -1375,13 +4006,55 @@
       <c r="E59" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="n">
-        <v>65</v>
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
       </c>
       <c r="D60" t="n">
         <v>65</v>
@@ -1389,13 +4062,55 @@
       <c r="E60" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="n">
-        <v>65</v>
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
       </c>
       <c r="D61" t="n">
         <v>65</v>
@@ -1403,13 +4118,55 @@
       <c r="E61" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="n">
-        <v>65</v>
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
       </c>
       <c r="D62" t="n">
         <v>65</v>
@@ -1417,13 +4174,55 @@
       <c r="E62" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="n">
-        <v>65</v>
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
       </c>
       <c r="D63" t="n">
         <v>65</v>
@@ -1431,13 +4230,55 @@
       <c r="E63" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" t="n">
-        <v>65</v>
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
       </c>
       <c r="D64" t="n">
         <v>65</v>
@@ -1445,13 +4286,55 @@
       <c r="E64" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="n">
-        <v>65</v>
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
       </c>
       <c r="D65" t="n">
         <v>65</v>
@@ -1459,13 +4342,55 @@
       <c r="E65" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="n">
-        <v>65</v>
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
       </c>
       <c r="D66" t="n">
         <v>65</v>
@@ -1473,13 +4398,55 @@
       <c r="E66" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="n">
-        <v>65</v>
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
       </c>
       <c r="D67" t="n">
         <v>65</v>
@@ -1487,19 +4454,47 @@
       <c r="E67" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="n">
-        <v>65</v>
-      </c>
-      <c r="D68" t="n">
-        <v>65</v>
-      </c>
-      <c r="E68" t="n">
-        <v>65</v>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
